--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_008/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_008/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02987421383647799</v>
+        <v>0.02354399008674101</v>
       </c>
       <c r="C3" t="n">
-        <v>68.33359122602761</v>
+        <v>119.3573322158606</v>
       </c>
       <c r="D3" t="n">
-        <v>168.2304797105713</v>
+        <v>551.8766516757187</v>
       </c>
       <c r="E3" t="n">
-        <v>3.029121982321961e-06</v>
+        <v>1.174730158809945e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004483009569896832</v>
+        <v>0.0006895720542336195</v>
       </c>
       <c r="G3" t="n">
-        <v>0.515</v>
+        <v>2.775</v>
       </c>
       <c r="H3" t="n">
-        <v>1.131666666666667</v>
+        <v>2.741666666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.066459495610053</v>
+        <v>0.03860619502637705</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4441474542796252</v>
+        <v>0.6491126660854704</v>
       </c>
       <c r="L3" t="n">
-        <v>1.044996504164115</v>
+        <v>1.608072951889142</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6793930183929782</v>
+        <v>-1.004626085198896</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P3" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q3" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R3" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06836474506054581</v>
+        <v>0.02557897256618787</v>
       </c>
       <c r="C4" t="n">
-        <v>45.55961739888541</v>
+        <v>76.67584899781062</v>
       </c>
       <c r="D4" t="n">
-        <v>85.28903943682272</v>
+        <v>284.4893610719413</v>
       </c>
       <c r="E4" t="n">
-        <v>1.118033086268047e-05</v>
+        <v>1.788509326684709e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006398913916463504</v>
+        <v>0.0007952037212376425</v>
       </c>
       <c r="G4" t="n">
-        <v>1.396463450825522</v>
+        <v>5.814115640229914</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5150256424969329</v>
+        <v>1.396398717605782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4801129810537007</v>
+        <v>0.7448504949901056</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7657798138376077</v>
+        <v>0.4522701320609862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2909257771710826</v>
+        <v>0.3908472019546395</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23050296086227</v>
+        <v>1.244948260330484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5231789066720477</v>
+        <v>0.3484150515545792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.00807209532212</v>
+        <v>16.06362696794252</v>
       </c>
       <c r="D5" t="n">
-        <v>69.41272103350096</v>
+        <v>201.0491251884566</v>
       </c>
       <c r="E5" t="n">
-        <v>1.105151559339242e-08</v>
+        <v>6.004238404674819e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>1.744891689700741e-05</v>
+        <v>5.899177238662871e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.9445900421989764</v>
+        <v>-0.8095253326699551</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08196969497370159</v>
+        <v>0.1243069445853251</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.7064540981327783</v>
+        <v>-0.4589621746311657</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.422191093724894</v>
+        <v>-2.175756589776088</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P5" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q5" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R5" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.07140821538312</v>
+        <v>69.71404681899949</v>
       </c>
       <c r="D6" t="n">
-        <v>110.395077282608</v>
+        <v>398.1733988534015</v>
       </c>
       <c r="E6" t="n">
-        <v>2.503142991512897e-07</v>
+        <v>2.13280250137487e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001134261138312645</v>
+        <v>0.0002281003383546023</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7</v>
+        <v>1.675</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5279230844089381</v>
+        <v>-0.2489338678203681</v>
       </c>
       <c r="K6" t="n">
-        <v>0.217199472120847</v>
+        <v>0.3949440358452814</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03361716677193069</v>
+        <v>0.7200724639252915</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.9930684507043798</v>
+        <v>-1.208305369850685</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P6" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q6" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R6" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
@@ -817,55 +817,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="C7" t="n">
-        <v>56.96802743315126</v>
+        <v>95.85872142601238</v>
       </c>
       <c r="D7" t="n">
-        <v>130.0799023245484</v>
+        <v>473.0715489043135</v>
       </c>
       <c r="E7" t="n">
-        <v>8.147053268566206e-07</v>
+        <v>4.044420901461876e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002702853886917155</v>
+        <v>0.0004408532433006859</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1403218901672031</v>
+        <v>-0.02871765876439147</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3770369165707581</v>
+        <v>0.6126722337242978</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7890090375129861</v>
+        <v>1.40832240806996</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7882029143531137</v>
+        <v>-0.9977144416678102</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P7" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q7" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R7" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.03717472118959107</v>
       </c>
       <c r="C8" t="n">
-        <v>79.54573259558356</v>
+        <v>140.5520809577223</v>
       </c>
       <c r="D8" t="n">
-        <v>220.4214648199232</v>
+        <v>633.3673353484055</v>
       </c>
       <c r="E8" t="n">
-        <v>2.327142177499583e-06</v>
+        <v>1.440121836856543e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004994876647205072</v>
+        <v>0.0008346357544712015</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.325</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>3.725</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4955362300574263</v>
+        <v>0.2024045771012301</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6251566066201379</v>
+        <v>0.8489292140200029</v>
       </c>
       <c r="L8" t="n">
-        <v>1.892208721949336</v>
+        <v>2.146558358510351</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.5771519498112445</v>
+        <v>-0.7660874406026367</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P8" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q8" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R8" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3773584905660377</v>
+        <v>0.1115241635687732</v>
       </c>
       <c r="C9" t="n">
-        <v>223.3789157638142</v>
+        <v>355.727956367575</v>
       </c>
       <c r="D9" t="n">
-        <v>417.0964501863664</v>
+        <v>1732.834901836803</v>
       </c>
       <c r="E9" t="n">
-        <v>8.648722850454992e-05</v>
+        <v>1.04620614037863e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003877706798876427</v>
+        <v>0.0044120186008116</v>
       </c>
       <c r="G9" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.4</v>
-      </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.107348261922775</v>
+        <v>1.258198071138213</v>
       </c>
       <c r="K9" t="n">
-        <v>1.596573835072234</v>
+        <v>2.233288418875544</v>
       </c>
       <c r="L9" t="n">
-        <v>4.001301792535731</v>
+        <v>5.24631180834759</v>
       </c>
       <c r="M9" t="n">
-        <v>1.072778197897178</v>
+        <v>-0.1672803014235083</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1451</v>
+        <v>1692</v>
       </c>
       <c r="P9" t="n">
-        <v>1556</v>
+        <v>1960</v>
       </c>
       <c r="Q9" t="n">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="R9" t="n">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
